--- a/Schema/SLO_CelPracyArchiwalny.xlsx
+++ b/Schema/SLO_CelPracyArchiwalny.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\!\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\xsd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7384CEF8-FE34-447D-B887-0E3517B4A808}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B16AB8CC-19AB-41E4-984B-45C7FF32DF81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28740" yWindow="-60" windowWidth="28920" windowHeight="15720" xr2:uid="{041C0CF5-402C-4D2A-9294-EA147D30ABB1}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15720" xr2:uid="{3D7F09C2-7CB0-4E33-9225-A067B8867C45}"/>
   </bookViews>
   <sheets>
-    <sheet name="SLO_CelPracyArchiwalny" sheetId="1" r:id="rId1"/>
+    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -21,14 +21,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{B0270E9A-D556-4A4A-AD80-BE2CED11A765}" name="SLO_CelPracyArchiwalny" type="4" refreshedVersion="0" background="1">
-    <webPr xml="1" sourceData="1" url="C:\!\SLO_CelPracyArchiwalny.xml" htmlTables="1" htmlFormat="all"/>
+  <connection id="1" xr16:uid="{41889A65-72C7-4CC8-B16F-86918659C5C2}" name="SLO_CelPracyArchiwalny" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="R:\xsd\SLO_CelPracyArchiwalny.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Kolumna1</t>
   </si>
@@ -39,160 +39,124 @@
     <t>value</t>
   </si>
   <si>
-    <t>rozgraniczenie</t>
-  </si>
-  <si>
-    <t>Ustalenie położenia punktów węzłowych</t>
-  </si>
-  <si>
-    <t>wznowienie punktów granicznych</t>
-  </si>
-  <si>
-    <t>aktualizacja EGiB</t>
-  </si>
-  <si>
-    <t>odnowienie ewidencji gruntów i budynków (EGiB)</t>
-  </si>
-  <si>
-    <t>regulacja</t>
-  </si>
-  <si>
-    <t>poligonizacja techniczna</t>
-  </si>
-  <si>
-    <t>parcelacja</t>
-  </si>
-  <si>
-    <t>szczegółowa osnowa pozioma III klasy</t>
-  </si>
-  <si>
-    <t>aktualizacja mapy sytuacyjno-wysokościowej</t>
+    <t>inwentaryzacja obiektów budowlanych</t>
+  </si>
+  <si>
+    <t>pomiar punktów węzłowych</t>
+  </si>
+  <si>
+    <t>sporządzenie mapy numerycznej</t>
+  </si>
+  <si>
+    <t>aktualizacja mapy</t>
+  </si>
+  <si>
+    <t>podział</t>
+  </si>
+  <si>
+    <t>inwentaryzacja sieci kanalizacyjnej</t>
+  </si>
+  <si>
+    <t>utworzenie bazy danych państwowego rejestru podstawowych osnów geodezyjnych, grawimetrycznych i magnetycznych (PRPOG)</t>
+  </si>
+  <si>
+    <t>inwentaryzacja sieci wodociągowej</t>
+  </si>
+  <si>
+    <t>aktualizacja bazy danych państwowego rejestru podstawowych osnów geodezyjnych, grawimetrycznych i magnetycznych (PRPOG) Dziennik Ustaw – 35 – Poz. 1183</t>
+  </si>
+  <si>
+    <t>inwentaryzacja sieci gazowej</t>
+  </si>
+  <si>
+    <t>utworzenie bazy danych obiektów topograficznych o szczegółowości zapewniającej tworzenie standardowych opracowań kartograficznych w skalach 1:10 000–1:100 000, w tym kartograficznych opracowań numerycznego modelu rzeźby terenu (BDOT10k)</t>
+  </si>
+  <si>
+    <t>aktualizacja bazy danych obiektów topograficznych o szczegółowości zapewniającej tworzenie standardowych opracowań kartograficznych w skalach 1:10 000–1:100 000, w tym kartograficznych opracowań numerycznego modelu rzeźby terenu (BDOT10k)</t>
+  </si>
+  <si>
+    <t>dokumenty przewłaszczeniowe</t>
+  </si>
+  <si>
+    <t>utworzenie bazy danych obiektów ogólnogeograficznych o szczegółowości zapewniającej tworzenie standardowych opracowań kartograficznych w skalach 1:250 000 i mniejszych, w tym kartograficznych opracowań numerycznego modelu rzeźby terenu (BDOO)</t>
+  </si>
+  <si>
+    <t>aktualizacja bazy danych obiektów ogólnogeograficznych o szczegółowości zapewniającej tworzenie standardowych opracowań kartograficznych w skalach 1:250 000 i mniejszych, w tym kartograficznych opracowań numerycznego modelu rzeźby terenu (BDOO)</t>
+  </si>
+  <si>
+    <t>inwentaryzacja sieci energetycznej</t>
+  </si>
+  <si>
+    <t>utworzenie krajowej bazy danych geodezyjnej ewidencji sieci uzbrojenia terenu (K-GESUT)</t>
+  </si>
+  <si>
+    <t>aktualizacja krajowej bazy danych geodezyjnej ewidencji sieci uzbrojenia terenu (K-GESUT)</t>
+  </si>
+  <si>
+    <t>utworzenie bazy danych zintegrowanych kopii baz danych BDOT10k</t>
+  </si>
+  <si>
+    <t>aktualizacja bazy danych zintegrowanych kopii baz danych BDOT10k</t>
+  </si>
+  <si>
+    <t>inwentaryzacja budynku</t>
+  </si>
+  <si>
+    <t>utworzenie bazy danych państwowego rejestru granic i powierzchni jednostek podziałów terytorialnych kraju (PRG) Dziennik Ustaw – 36 – Poz. 1183</t>
+  </si>
+  <si>
+    <t>klasyfikacja użytkow</t>
+  </si>
+  <si>
+    <t>aktualizacja bazy danych państwowego rejestru granic i powierzchni jednostek podziałów terytorialnych kraju (PRG)</t>
+  </si>
+  <si>
+    <t>utworzenie bazy danych państwowego rejestru nazw geograficznych (PRNG)</t>
+  </si>
+  <si>
+    <t>wymiana gruntów</t>
+  </si>
+  <si>
+    <t>aktualizacja bazy danych państwowego rejestru nazw geograficznych (PRNG)</t>
+  </si>
+  <si>
+    <t>POMIAR SYT-WYS</t>
+  </si>
+  <si>
+    <t>utworzenie bazy danych ortofotomapy</t>
+  </si>
+  <si>
+    <t>WERYFIKACJA DANYCH EWIDENCYJNYCH (KONTROLA TERENOWA)</t>
+  </si>
+  <si>
+    <t>utworzenie bazy danych numerycznego modelu terenu (NMT)</t>
+  </si>
+  <si>
+    <t>urządzenia lasu</t>
+  </si>
+  <si>
+    <t>INWENTARYZACJA POWYKONAWCZA</t>
+  </si>
+  <si>
+    <t>inwentaryzacja słupów</t>
+  </si>
+  <si>
+    <t>USTALENIE GRANIC</t>
+  </si>
+  <si>
+    <t>inwentaryzacja sieci telekomunikacyjnej</t>
+  </si>
+  <si>
+    <t>nowy pomiar</t>
+  </si>
+  <si>
+    <t>SCALENIE I WYMIANA GRUNTÓW</t>
   </si>
   <si>
     <t>inwentaryzacja sieci ciepłowniczej</t>
   </si>
   <si>
-    <t>podział</t>
-  </si>
-  <si>
-    <t>inwentaryzacja sieci wodociągowej</t>
-  </si>
-  <si>
-    <t>pomiar sytuacyjno-wysokościowy</t>
-  </si>
-  <si>
-    <t>inwentaryzacja sieci energetycznej</t>
-  </si>
-  <si>
-    <t>ustalenie punktów granicznych</t>
-  </si>
-  <si>
-    <t>inwentaryzacja sieci telekomunikacyjnej</t>
-  </si>
-  <si>
-    <t>inwentaryzacja budynku</t>
-  </si>
-  <si>
-    <t>weryfikacja gruntów</t>
-  </si>
-  <si>
-    <t>inwentaryzacja sieci kanalizacyjnej</t>
-  </si>
-  <si>
-    <t>pomiar sytuacyjny</t>
-  </si>
-  <si>
-    <t>wymiana gruntów</t>
-  </si>
-  <si>
-    <t>obliczenie klasyfikacji</t>
-  </si>
-  <si>
-    <t>kontrola  terenowa-pomiar użytków</t>
-  </si>
-  <si>
-    <t>założenie i modernizacja osnowy poziomej II i III kl.</t>
-  </si>
-  <si>
-    <t>pomiar uzupełniający</t>
-  </si>
-  <si>
-    <t>inne opracowanie</t>
-  </si>
-  <si>
-    <t>dokumenty przewłaszczeniowe</t>
-  </si>
-  <si>
-    <t>mapa ewidencyjna</t>
-  </si>
-  <si>
-    <t>mapa wektorowa</t>
-  </si>
-  <si>
-    <t>mapa numeryczna</t>
-  </si>
-  <si>
-    <t>scalenie gruntów</t>
-  </si>
-  <si>
-    <t>łączenie działek</t>
-  </si>
-  <si>
-    <t>utworzenie bazy danych państwowego rejestru podstawowych osnów geodezyjnych, grawimetrycznych i magnetycznych (PRPOG)</t>
-  </si>
-  <si>
-    <t>aktualizacja bazy danych państwowego rejestru podstawowych osnów geodezyjnych, grawimetrycznych i magnetycznych (PRPOG) Dziennik Ustaw – 35 – Poz. 1183</t>
-  </si>
-  <si>
-    <t>utworzenie bazy danych obiektów topograficznych o szczegółowości zapewniającej tworzenie standardowych opracowań kartograficznych w skalach 1:10 000–1:100 000, w tym kartograficznych opracowań numerycznego modelu rzeźby terenu (BDOT10k)</t>
-  </si>
-  <si>
-    <t>aktualizacja bazy danych obiektów topograficznych o szczegółowości zapewniającej tworzenie standardowych opracowań kartograficznych w skalach 1:10 000–1:100 000, w tym kartograficznych opracowań numerycznego modelu rzeźby terenu (BDOT10k)</t>
-  </si>
-  <si>
-    <t>utworzenie bazy danych obiektów ogólnogeograficznych o szczegółowości zapewniającej tworzenie standardowych opracowań kartograficznych w skalach 1:250 000 i mniejszych, w tym kartograficznych opracowań numerycznego modelu rzeźby terenu (BDOO)</t>
-  </si>
-  <si>
-    <t>aktualizacja bazy danych obiektów ogólnogeograficznych o szczegółowości zapewniającej tworzenie standardowych opracowań kartograficznych w skalach 1:250 000 i mniejszych, w tym kartograficznych opracowań numerycznego modelu rzeźby terenu (BDOO)</t>
-  </si>
-  <si>
-    <t>utworzenie krajowej bazy danych geodezyjnej ewidencji sieci uzbrojenia terenu (K-GESUT)</t>
-  </si>
-  <si>
-    <t>aktualizacja krajowej bazy danych geodezyjnej ewidencji sieci uzbrojenia terenu (K-GESUT)</t>
-  </si>
-  <si>
-    <t>utworzenie bazy danych zintegrowanych kopii baz danych BDOT10k</t>
-  </si>
-  <si>
-    <t>aktualizacja bazy danych zintegrowanych kopii baz danych BDOT10k</t>
-  </si>
-  <si>
-    <t>utworzenie bazy danych państwowego rejestru granic i powierzchni jednostek podziałów terytorialnych kraju (PRG) Dziennik Ustaw – 36 – Poz. 1183</t>
-  </si>
-  <si>
-    <t>aktualizacja bazy danych państwowego rejestru granic i powierzchni jednostek podziałów terytorialnych kraju (PRG)</t>
-  </si>
-  <si>
-    <t>utworzenie bazy danych państwowego rejestru nazw geograficznych (PRNG)</t>
-  </si>
-  <si>
-    <t>aktualizacja bazy danych państwowego rejestru nazw geograficznych (PRNG)</t>
-  </si>
-  <si>
-    <t>utworzenie bazy danych ortofotomapy</t>
-  </si>
-  <si>
-    <t>utworzenie bazy danych numerycznego modelu terenu (NMT)</t>
-  </si>
-  <si>
-    <t>pomiar rozgraniczeniowo-wywłaszczeniowy</t>
-  </si>
-  <si>
-    <t>inwentaryzacja sieci gazowej</t>
-  </si>
-  <si>
-    <t>osnowa wysokościowa III kl</t>
+    <t>OSNOWA</t>
   </si>
 </sst>
 </file>
@@ -279,16 +243,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{85DFEB07-EC9B-4D74-83E7-936958B8E216}" name="Tabela1" displayName="Tabela1" ref="A1:C53" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:C53" xr:uid="{F34239FC-5E6A-4897-803E-B36872229123}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{92E312D2-D4F1-4620-A2AD-BEBCC65E7CE7}" name="Tabela1" displayName="Tabela1" ref="A1:C41" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:C41" xr:uid="{E16AB026-77A4-418D-9D28-7F5F9E742BD9}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{714D0AC4-AF71-4292-8DB3-7C389B511971}" uniqueName="key" name="key">
+    <tableColumn id="1" xr3:uid="{6C69D0B2-5D72-4ACF-97B4-69332C5201E5}" uniqueName="key" name="key">
       <xmlColumnPr mapId="1" xpath="/SLO_CelPracyArchiwalny/entry/key" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{42DE23CB-EF35-4FDE-907C-EFDE0C461E23}" uniqueName="value" name="value">
+    <tableColumn id="2" xr3:uid="{CEF0F68D-5582-4CCF-A2C8-F413E5793F82}" uniqueName="value" name="value">
       <xmlColumnPr mapId="1" xpath="/SLO_CelPracyArchiwalny/entry/value" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{E467DC70-CA30-460E-9E56-FBB47617F14C}" uniqueName="3" name="Kolumna1" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{6A78EB5D-E957-4971-83F0-C3CC24C0BABD}" uniqueName="3" name="Kolumna1" dataDxfId="0">
       <calculatedColumnFormula>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -593,17 +557,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="81.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="94.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -619,14 +582,14 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>100101</v>
+        <v>100103</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="rozgraniczenie"/&gt;</v>
+        <v>&lt;enumeration value="inwentaryzacja obiektów budowlanych"/&gt;</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -638,7 +601,7 @@
       </c>
       <c r="C3" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="Ustalenie położenia punktów węzłowych"/&gt;</v>
+        <v>&lt;enumeration value="pomiar punktów węzłowych"/&gt;</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -650,7 +613,7 @@
       </c>
       <c r="C4" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="wznowienie punktów granicznych"/&gt;</v>
+        <v>&lt;enumeration value="sporządzenie mapy numerycznej"/&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -662,583 +625,439 @@
       </c>
       <c r="C5" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="aktualizacja EGiB"/&gt;</v>
+        <v>&lt;enumeration value="aktualizacja mapy"/&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>100109</v>
+        <v>100003</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="odnowienie ewidencji gruntów i budynków (EGiB)"/&gt;</v>
+        <v>&lt;enumeration value="podział"/&gt;</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>100111</v>
+        <v>100002</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="regulacja"/&gt;</v>
+        <v>&lt;enumeration value="inwentaryzacja sieci kanalizacyjnej"/&gt;</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>100110</v>
+        <v>100</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="poligonizacja techniczna"/&gt;</v>
+        <v>&lt;enumeration value="utworzenie bazy danych państwowego rejestru podstawowych osnów geodezyjnych, grawimetrycznych i magnetycznych (PRPOG)"/&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>100112</v>
+        <v>100005</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="parcelacja"/&gt;</v>
+        <v>&lt;enumeration value="inwentaryzacja sieci wodociągowej"/&gt;</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>100114</v>
+        <v>101</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C10" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="szczegółowa osnowa pozioma III klasy"/&gt;</v>
+        <v>&lt;enumeration value="aktualizacja bazy danych państwowego rejestru podstawowych osnów geodezyjnych, grawimetrycznych i magnetycznych (PRPOG) Dziennik Ustaw – 35 – Poz. 1183"/&gt;</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>100001</v>
+        <v>100004</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C11" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="aktualizacja mapy sytuacyjno-wysokościowej"/&gt;</v>
+        <v>&lt;enumeration value="inwentaryzacja sieci gazowej"/&gt;</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>100005</v>
+        <v>102</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C12" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="inwentaryzacja sieci ciepłowniczej"/&gt;</v>
+        <v>&lt;enumeration value="utworzenie bazy danych obiektów topograficznych o szczegółowości zapewniającej tworzenie standardowych opracowań kartograficznych w skalach 1:10 000–1:100 000, w tym kartograficznych opracowań numerycznego modelu rzeźby terenu (BDOT10k)"/&gt;</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>100004</v>
+        <v>103</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C13" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="podział"/&gt;</v>
+        <v>&lt;enumeration value="aktualizacja bazy danych obiektów topograficznych o szczegółowości zapewniającej tworzenie standardowych opracowań kartograficznych w skalach 1:10 000–1:100 000, w tym kartograficznych opracowań numerycznego modelu rzeźby terenu (BDOT10k)"/&gt;</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>100007</v>
+        <v>100006</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C14" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="inwentaryzacja sieci wodociągowej"/&gt;</v>
+        <v>&lt;enumeration value="dokumenty przewłaszczeniowe"/&gt;</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>100009</v>
+        <v>104</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C15" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="pomiar sytuacyjno-wysokościowy"/&gt;</v>
+        <v>&lt;enumeration value="utworzenie bazy danych obiektów ogólnogeograficznych o szczegółowości zapewniającej tworzenie standardowych opracowań kartograficznych w skalach 1:250 000 i mniejszych, w tym kartograficznych opracowań numerycznego modelu rzeźby terenu (BDOO)"/&gt;</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>100015</v>
+        <v>105</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C16" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="inwentaryzacja sieci energetycznej"/&gt;</v>
+        <v>&lt;enumeration value="aktualizacja bazy danych obiektów ogólnogeograficznych o szczegółowości zapewniającej tworzenie standardowych opracowań kartograficznych w skalach 1:250 000 i mniejszych, w tym kartograficznych opracowań numerycznego modelu rzeźby terenu (BDOO)"/&gt;</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>100014</v>
+        <v>100008</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C17" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="ustalenie punktów granicznych"/&gt;</v>
+        <v>&lt;enumeration value="inwentaryzacja sieci energetycznej"/&gt;</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>100017</v>
+        <v>106</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C18" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="inwentaryzacja sieci telekomunikacyjnej"/&gt;</v>
+        <v>&lt;enumeration value="utworzenie krajowej bazy danych geodezyjnej ewidencji sieci uzbrojenia terenu (K-GESUT)"/&gt;</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>100016</v>
+        <v>107</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C19" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="inwentaryzacja budynku"/&gt;</v>
+        <v>&lt;enumeration value="aktualizacja krajowej bazy danych geodezyjnej ewidencji sieci uzbrojenia terenu (K-GESUT)"/&gt;</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>100021</v>
+        <v>108</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C20" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="weryfikacja gruntów"/&gt;</v>
+        <v>&lt;enumeration value="utworzenie bazy danych zintegrowanych kopii baz danych BDOT10k"/&gt;</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>100020</v>
+        <v>109</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C21" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="inwentaryzacja sieci kanalizacyjnej"/&gt;</v>
+        <v>&lt;enumeration value="aktualizacja bazy danych zintegrowanych kopii baz danych BDOT10k"/&gt;</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>100025</v>
+        <v>100012</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C22" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="pomiar sytuacyjny"/&gt;</v>
+        <v>&lt;enumeration value="inwentaryzacja budynku"/&gt;</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>100024</v>
+        <v>110</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C23" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="wymiana gruntów"/&gt;</v>
+        <v>&lt;enumeration value="utworzenie bazy danych państwowego rejestru granic i powierzchni jednostek podziałów terytorialnych kraju (PRG) Dziennik Ustaw – 36 – Poz. 1183"/&gt;</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>100028</v>
+        <v>100015</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C24" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="obliczenie klasyfikacji"/&gt;</v>
+        <v>&lt;enumeration value="klasyfikacja użytkow"/&gt;</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>100030</v>
+        <v>111</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C25" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="kontrola  terenowa-pomiar użytków"/&gt;</v>
+        <v>&lt;enumeration value="aktualizacja bazy danych państwowego rejestru granic i powierzchni jednostek podziałów terytorialnych kraju (PRG)"/&gt;</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>100033</v>
+        <v>112</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C26" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="założenie i modernizacja osnowy poziomej II i III kl."/&gt;</v>
+        <v>&lt;enumeration value="utworzenie bazy danych państwowego rejestru nazw geograficznych (PRNG)"/&gt;</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>100040</v>
+        <v>100017</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C27" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="pomiar uzupełniający"/&gt;</v>
+        <v>&lt;enumeration value="wymiana gruntów"/&gt;</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>100042</v>
+        <v>113</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C28" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="inne opracowanie"/&gt;</v>
+        <v>&lt;enumeration value="aktualizacja bazy danych państwowego rejestru nazw geograficznych (PRNG)"/&gt;</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>100050</v>
+        <v>100080</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C29" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="dokumenty przewłaszczeniowe"/&gt;</v>
+        <v>&lt;enumeration value="POMIAR SYT-WYS"/&gt;</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>100056</v>
+        <v>114</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C30" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="mapa ewidencyjna"/&gt;</v>
+        <v>&lt;enumeration value="utworzenie bazy danych ortofotomapy"/&gt;</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>100061</v>
+        <v>100083</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C31" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="mapa wektorowa"/&gt;</v>
+        <v>&lt;enumeration value="WERYFIKACJA DANYCH EWIDENCYJNYCH (KONTROLA TERENOWA)"/&gt;</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>100060</v>
+        <v>115</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C32" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="mapa numeryczna"/&gt;</v>
+        <v>&lt;enumeration value="utworzenie bazy danych numerycznego modelu terenu (NMT)"/&gt;</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>100062</v>
+        <v>100018</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C33" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="scalenie gruntów"/&gt;</v>
+        <v>&lt;enumeration value="urządzenia lasu"/&gt;</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>100067</v>
+        <v>100082</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C34" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="łączenie działek"/&gt;</v>
+        <v>&lt;enumeration value="INWENTARYZACJA POWYKONAWCZA"/&gt;</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>100</v>
+        <v>100021</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C35" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="utworzenie bazy danych państwowego rejestru podstawowych osnów geodezyjnych, grawimetrycznych i magnetycznych (PRPOG)"/&gt;</v>
+        <v>&lt;enumeration value="inwentaryzacja słupów"/&gt;</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>101</v>
+        <v>100085</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C36" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="aktualizacja bazy danych państwowego rejestru podstawowych osnów geodezyjnych, grawimetrycznych i magnetycznych (PRPOG) Dziennik Ustaw – 35 – Poz. 1183"/&gt;</v>
+        <v>&lt;enumeration value="USTALENIE GRANIC"/&gt;</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>102</v>
+        <v>100023</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C37" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="utworzenie bazy danych obiektów topograficznych o szczegółowości zapewniającej tworzenie standardowych opracowań kartograficznych w skalach 1:10 000–1:100 000, w tym kartograficznych opracowań numerycznego modelu rzeźby terenu (BDOT10k)"/&gt;</v>
+        <v>&lt;enumeration value="inwentaryzacja sieci telekomunikacyjnej"/&gt;</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>103</v>
+        <v>100025</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C38" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="aktualizacja bazy danych obiektów topograficznych o szczegółowości zapewniającej tworzenie standardowych opracowań kartograficznych w skalach 1:10 000–1:100 000, w tym kartograficznych opracowań numerycznego modelu rzeźby terenu (BDOT10k)"/&gt;</v>
+        <v>&lt;enumeration value="nowy pomiar"/&gt;</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>104</v>
+        <v>100089</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C39" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="utworzenie bazy danych obiektów ogólnogeograficznych o szczegółowości zapewniającej tworzenie standardowych opracowań kartograficznych w skalach 1:250 000 i mniejszych, w tym kartograficznych opracowań numerycznego modelu rzeźby terenu (BDOO)"/&gt;</v>
+        <v>&lt;enumeration value="SCALENIE I WYMIANA GRUNTÓW"/&gt;</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>105</v>
+        <v>100024</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C40" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="aktualizacja bazy danych obiektów ogólnogeograficznych o szczegółowości zapewniającej tworzenie standardowych opracowań kartograficznych w skalach 1:250 000 i mniejszych, w tym kartograficznych opracowań numerycznego modelu rzeźby terenu (BDOO)"/&gt;</v>
+        <v>&lt;enumeration value="inwentaryzacja sieci ciepłowniczej"/&gt;</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>106</v>
+        <v>100094</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C41" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="utworzenie krajowej bazy danych geodezyjnej ewidencji sieci uzbrojenia terenu (K-GESUT)"/&gt;</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>107</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" t="str">
-        <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="aktualizacja krajowej bazy danych geodezyjnej ewidencji sieci uzbrojenia terenu (K-GESUT)"/&gt;</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>108</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C43" t="str">
-        <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="utworzenie bazy danych zintegrowanych kopii baz danych BDOT10k"/&gt;</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>109</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C44" t="str">
-        <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="aktualizacja bazy danych zintegrowanych kopii baz danych BDOT10k"/&gt;</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>110</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C45" t="str">
-        <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="utworzenie bazy danych państwowego rejestru granic i powierzchni jednostek podziałów terytorialnych kraju (PRG) Dziennik Ustaw – 36 – Poz. 1183"/&gt;</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>111</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C46" t="str">
-        <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="aktualizacja bazy danych państwowego rejestru granic i powierzchni jednostek podziałów terytorialnych kraju (PRG)"/&gt;</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>112</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C47" t="str">
-        <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="utworzenie bazy danych państwowego rejestru nazw geograficznych (PRNG)"/&gt;</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>113</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C48" t="str">
-        <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="aktualizacja bazy danych państwowego rejestru nazw geograficznych (PRNG)"/&gt;</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>114</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C49" t="str">
-        <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="utworzenie bazy danych ortofotomapy"/&gt;</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>115</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C50" t="str">
-        <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="utworzenie bazy danych numerycznego modelu terenu (NMT)"/&gt;</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>100085</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C51" t="str">
-        <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="pomiar rozgraniczeniowo-wywłaszczeniowy"/&gt;</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>100093</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C52" t="str">
-        <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="inwentaryzacja sieci gazowej"/&gt;</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>100095</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C53" t="str">
-        <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="osnowa wysokościowa III kl"/&gt;</v>
+        <v>&lt;enumeration value="OSNOWA"/&gt;</v>
       </c>
     </row>
   </sheetData>
